--- a/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5725C65-E75A-4F39-ADDC-F06907FAE5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340CE974-71DC-4A14-A5BA-18381138F8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
   <si>
     <t>PERIOD</t>
   </si>
@@ -334,6 +326,24 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>11/9,14</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>12/5,6,28,29</t>
+  </si>
+  <si>
+    <t>11/10,11</t>
+  </si>
+  <si>
+    <t>SL(8-0-0)</t>
+  </si>
+  <si>
+    <t>12/2,7,9,12-16</t>
   </si>
 </sst>
 </file>
@@ -712,6 +722,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -747,12 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2741,7 +2751,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K167" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K175" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3119,12 +3129,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K167"/>
+  <dimension ref="A2:K175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A113" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A116" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="I119" sqref="I119"/>
+      <selection pane="bottomLeft" activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3146,62 +3156,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3227,18 +3237,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3285,7 +3295,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>117.48699999999999</v>
+        <v>111.48699999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3295,7 +3305,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>144.12</v>
+        <v>130.12</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3344,7 +3354,7 @@
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="61">
+      <c r="K11" s="49">
         <v>42795</v>
       </c>
     </row>
@@ -3366,7 +3376,7 @@
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="61"/>
+      <c r="K12" s="49"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
@@ -3434,7 +3444,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="61">
+      <c r="K15" s="49">
         <v>42835</v>
       </c>
     </row>
@@ -3456,7 +3466,7 @@
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="61">
+      <c r="K16" s="49">
         <v>42810</v>
       </c>
     </row>
@@ -3478,7 +3488,7 @@
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="61">
+      <c r="K17" s="49">
         <v>42823</v>
       </c>
     </row>
@@ -3524,7 +3534,7 @@
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="61">
+      <c r="K19" s="49">
         <v>42830</v>
       </c>
     </row>
@@ -3546,7 +3556,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="61"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
@@ -3570,7 +3580,7 @@
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="61">
+      <c r="K21" s="49">
         <v>42851</v>
       </c>
     </row>
@@ -3612,7 +3622,7 @@
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="62">
+      <c r="K23" s="50">
         <v>42888</v>
       </c>
     </row>
@@ -3702,7 +3712,7 @@
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="61">
+      <c r="K27" s="49">
         <v>42957</v>
       </c>
     </row>
@@ -3724,7 +3734,7 @@
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="61"/>
+      <c r="K28" s="49"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
@@ -3794,7 +3804,7 @@
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="61">
+      <c r="K31" s="49">
         <v>43033</v>
       </c>
     </row>
@@ -3816,7 +3826,7 @@
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="61">
+      <c r="K32" s="49">
         <v>43063</v>
       </c>
     </row>
@@ -4004,7 +4014,7 @@
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="61">
+      <c r="K41" s="49">
         <v>43208</v>
       </c>
     </row>
@@ -4140,7 +4150,7 @@
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="61">
+      <c r="K47" s="49">
         <v>43388</v>
       </c>
     </row>
@@ -4292,7 +4302,7 @@
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="61">
+      <c r="K54" s="49">
         <v>43446</v>
       </c>
     </row>
@@ -4440,7 +4450,7 @@
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="61">
+      <c r="K61" s="49">
         <v>43608</v>
       </c>
     </row>
@@ -4460,7 +4470,7 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="61" t="s">
+      <c r="K62" s="49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4482,7 +4492,7 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="61" t="s">
+      <c r="K63" s="49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4503,7 +4513,7 @@
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="61">
+      <c r="K64" s="49">
         <v>43635</v>
       </c>
     </row>
@@ -4549,7 +4559,7 @@
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="61">
+      <c r="K66" s="49">
         <v>43675</v>
       </c>
     </row>
@@ -4597,7 +4607,7 @@
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="61">
+      <c r="K68" s="49">
         <v>43735</v>
       </c>
     </row>
@@ -4619,7 +4629,7 @@
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="61">
+      <c r="K69" s="49">
         <v>43749</v>
       </c>
     </row>
@@ -4691,7 +4701,7 @@
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="61">
+      <c r="K72" s="49">
         <v>43791</v>
       </c>
     </row>
@@ -4713,7 +4723,7 @@
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="61">
+      <c r="K73" s="49">
         <v>43798</v>
       </c>
     </row>
@@ -4777,7 +4787,7 @@
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="61">
+      <c r="K76" s="49">
         <v>43840</v>
       </c>
     </row>
@@ -4797,7 +4807,7 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="61" t="s">
+      <c r="K77" s="49" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4819,7 +4829,7 @@
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="61">
+      <c r="K78" s="49">
         <v>43894</v>
       </c>
     </row>
@@ -4865,7 +4875,7 @@
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="61">
+      <c r="K80" s="49">
         <v>43899</v>
       </c>
     </row>
@@ -5215,7 +5225,7 @@
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="61">
+      <c r="K97" s="49">
         <v>44499</v>
       </c>
     </row>
@@ -5281,7 +5291,7 @@
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="61">
+      <c r="K100" s="49">
         <v>44494</v>
       </c>
     </row>
@@ -5303,7 +5313,7 @@
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="61" t="s">
+      <c r="K101" s="49" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5323,7 +5333,7 @@
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="61" t="s">
+      <c r="K102" s="49" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5413,7 +5423,7 @@
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="61">
+      <c r="K106" s="49">
         <v>44586</v>
       </c>
     </row>
@@ -5539,7 +5549,7 @@
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="61">
+      <c r="K112" s="49">
         <v>44757</v>
       </c>
     </row>
@@ -5559,7 +5569,7 @@
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="61" t="s">
+      <c r="K113" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5636,50 +5646,52 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B117" s="20"/>
-      <c r="C117" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A117" s="40"/>
+      <c r="B117" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C117" s="13"/>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H117" s="39"/>
+      <c r="G117" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="39">
+        <v>1</v>
+      </c>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
+      <c r="K117" s="49">
+        <v>44860</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B118" s="20"/>
-      <c r="C118" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A118" s="40"/>
+      <c r="B118" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118" s="13"/>
       <c r="D118" s="39"/>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G118" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
+      <c r="K118" s="49">
+        <v>44853</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B119" s="20"/>
+      <c r="A119" s="40"/>
+      <c r="B119" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
       <c r="E119" s="9"/>
@@ -5691,13 +5703,17 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
+      <c r="K119" s="49">
+        <v>44825</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B120" s="20"/>
+        <v>44866</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C120" s="13">
         <v>1.25</v>
       </c>
@@ -5708,14 +5724,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H120" s="39"/>
+      <c r="H120" s="39">
+        <v>1</v>
+      </c>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
+      <c r="K120" s="49">
+        <v>44869</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
-      <c r="B121" s="20"/>
+      <c r="B121" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
       <c r="E121" s="9"/>
@@ -5724,16 +5746,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H121" s="39"/>
+      <c r="H121" s="39">
+        <v>2</v>
+      </c>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
+      <c r="K121" s="49" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
-      <c r="B122" s="20"/>
+      <c r="B122" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C122" s="13"/>
-      <c r="D122" s="39"/>
+      <c r="D122" s="39">
+        <v>2</v>
+      </c>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
       <c r="G122" s="13" t="str">
@@ -5743,11 +5773,15 @@
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
+      <c r="K122" s="49" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
-      <c r="B123" s="20"/>
+      <c r="B123" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
       <c r="E123" s="9"/>
@@ -5756,14 +5790,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H123" s="39"/>
+      <c r="H123" s="39">
+        <v>1</v>
+      </c>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
+      <c r="K123" s="49">
+        <v>44890</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
-      <c r="B124" s="20"/>
+      <c r="B124" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
       <c r="E124" s="9"/>
@@ -5772,30 +5812,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H124" s="39"/>
+      <c r="H124" s="39">
+        <v>1</v>
+      </c>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
+      <c r="K124" s="49">
+        <v>44862</v>
+      </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="39"/>
+      <c r="A125" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C125" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D125" s="39">
+        <v>4</v>
+      </c>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G125" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
+      <c r="K125" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
-      <c r="B126" s="20"/>
+      <c r="B126" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
       <c r="E126" s="9"/>
@@ -5804,13 +5860,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H126" s="39"/>
+      <c r="H126" s="39">
+        <v>8</v>
+      </c>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
+      <c r="K126" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="48" t="s">
+        <v>96</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5826,15 +5888,19 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>44927</v>
+      </c>
       <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
+      <c r="C128" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D128" s="39"/>
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G128" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H128" s="39"/>
       <c r="I128" s="9"/>
@@ -6450,20 +6516,148 @@
       <c r="K166" s="20"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A167" s="41"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="42"/>
-      <c r="D167" s="43"/>
+      <c r="A167" s="40"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="39"/>
       <c r="E167" s="9"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H167" s="43"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H167" s="39"/>
       <c r="I167" s="9"/>
-      <c r="J167" s="12"/>
-      <c r="K167" s="15"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="20"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="40"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H168" s="39"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="20"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="40"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H169" s="39"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="20"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="40"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H170" s="39"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="20"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="40"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H171" s="39"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="20"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="40"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H172" s="39"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="20"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="40"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H173" s="39"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="20"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="40"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H174" s="39"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="20"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="41"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="43"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H175" s="43"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6529,17 +6723,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -6622,12 +6816,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="480">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1465,6 +1465,15 @@
   </si>
   <si>
     <t>8/22 - 9/30/2023</t>
+  </si>
+  <si>
+    <t>10/23-25/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/04,05/2023</t>
   </si>
 </sst>
 </file>
@@ -2348,7 +2357,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2400,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2464,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2524,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2590,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2653,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +2751,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2810,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2866,7 +2875,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2909,7 +2918,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,7 +2993,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3170,7 +3179,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3236,7 +3245,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3303,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3369,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3425,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3491,7 +3500,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3534,7 +3543,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3600,7 +3609,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3656,7 +3665,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3754,7 +3763,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3817,7 +3826,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3883,8 +3892,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K618" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K618"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K625" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K625"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4262,12 +4271,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K618"/>
+  <dimension ref="A2:K625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A545" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A569" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B553" sqref="B553"/>
+      <selection pane="bottomLeft" activeCell="K588" sqref="K588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4428,7 +4437,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>111.50700000000006</v>
+        <v>110.25700000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4438,7 +4447,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>22.125</v>
+        <v>19.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17468,13 +17477,15 @@
         <v>45170</v>
       </c>
       <c r="B579" s="20"/>
-      <c r="C579" s="13"/>
+      <c r="C579" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D579" s="39"/>
       <c r="E579" s="9"/>
       <c r="F579" s="20"/>
-      <c r="G579" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G579" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H579" s="39"/>
       <c r="I579" s="9"/>
@@ -17485,25 +17496,33 @@
       <c r="A580" s="40">
         <v>45200</v>
       </c>
-      <c r="B580" s="20"/>
-      <c r="C580" s="13"/>
+      <c r="B580" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C580" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D580" s="39"/>
       <c r="E580" s="9"/>
       <c r="F580" s="20"/>
-      <c r="G580" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H580" s="39"/>
+      <c r="G580" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H580" s="39">
+        <v>1</v>
+      </c>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="20"/>
+      <c r="K580" s="49">
+        <v>45205</v>
+      </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B581" s="20"/>
+      <c r="A581" s="40"/>
+      <c r="B581" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C581" s="13"/>
       <c r="D581" s="39"/>
       <c r="E581" s="9"/>
@@ -17515,15 +17534,19 @@
       <c r="H581" s="39"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="20"/>
+      <c r="K581" s="49">
+        <v>45216</v>
+      </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B582" s="20"/>
+      <c r="A582" s="40"/>
+      <c r="B582" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="C582" s="13"/>
-      <c r="D582" s="39"/>
+      <c r="D582" s="39">
+        <v>3</v>
+      </c>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
       <c r="G582" s="13" t="str">
@@ -17533,13 +17556,15 @@
       <c r="H582" s="39"/>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="20"/>
+      <c r="K582" s="49" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A583" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B583" s="20"/>
+      <c r="A583" s="40"/>
+      <c r="B583" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C583" s="13"/>
       <c r="D583" s="39"/>
       <c r="E583" s="9"/>
@@ -17548,36 +17573,50 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H583" s="39"/>
+      <c r="H583" s="39">
+        <v>1</v>
+      </c>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="20"/>
+      <c r="K583" s="49">
+        <v>45209</v>
+      </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B584" s="20"/>
-      <c r="C584" s="13"/>
-      <c r="D584" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B584" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C584" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D584" s="39">
+        <v>1</v>
+      </c>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
-      <c r="G584" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G584" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H584" s="39"/>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
-      <c r="K584" s="20"/>
+      <c r="K584" s="49">
+        <v>45237</v>
+      </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B585" s="20"/>
+      <c r="A585" s="40"/>
+      <c r="B585" s="20" t="s">
+        <v>168</v>
+      </c>
       <c r="C585" s="13"/>
-      <c r="D585" s="39"/>
+      <c r="D585" s="39">
+        <v>1</v>
+      </c>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
       <c r="G585" s="13" t="str">
@@ -17587,13 +17626,15 @@
       <c r="H585" s="39"/>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="20"/>
+      <c r="K585" s="49">
+        <v>45254</v>
+      </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B586" s="20"/>
+      <c r="A586" s="40"/>
+      <c r="B586" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C586" s="13"/>
       <c r="D586" s="39"/>
       <c r="E586" s="9"/>
@@ -17602,16 +17643,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H586" s="39"/>
+      <c r="H586" s="39">
+        <v>1</v>
+      </c>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="20"/>
+      <c r="K586" s="49">
+        <v>45246</v>
+      </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B587" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B587" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C587" s="13"/>
       <c r="D587" s="39"/>
       <c r="E587" s="9"/>
@@ -17620,16 +17667,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H587" s="39"/>
+      <c r="H587" s="39">
+        <v>2</v>
+      </c>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="20"/>
+      <c r="K587" s="20" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A588" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B588" s="20"/>
+      <c r="A588" s="40"/>
+      <c r="B588" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C588" s="13"/>
       <c r="D588" s="39"/>
       <c r="E588" s="9"/>
@@ -17638,14 +17689,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H588" s="39"/>
+      <c r="H588" s="39">
+        <v>1</v>
+      </c>
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
-      <c r="K588" s="20"/>
+      <c r="K588" s="49">
+        <v>45274</v>
+      </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A589" s="40">
-        <v>45474</v>
+      <c r="A589" s="48" t="s">
+        <v>478</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17663,7 +17718,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45505</v>
+        <v>45292</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17681,7 +17736,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45536</v>
+        <v>45323</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17699,7 +17754,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45566</v>
+        <v>45352</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17717,7 +17772,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45597</v>
+        <v>45383</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17735,7 +17790,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45627</v>
+        <v>45413</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17753,7 +17808,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45658</v>
+        <v>45444</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17771,7 +17826,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45689</v>
+        <v>45474</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17789,7 +17844,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45717</v>
+        <v>45505</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17807,7 +17862,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45748</v>
+        <v>45536</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17825,7 +17880,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45778</v>
+        <v>45566</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17843,7 +17898,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45809</v>
+        <v>45597</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17861,7 +17916,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45839</v>
+        <v>45627</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17879,7 +17934,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45870</v>
+        <v>45658</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17897,7 +17952,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45901</v>
+        <v>45689</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17915,7 +17970,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45931</v>
+        <v>45717</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17933,7 +17988,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45962</v>
+        <v>45748</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17951,7 +18006,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45992</v>
+        <v>45778</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17969,7 +18024,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>46023</v>
+        <v>45809</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17987,7 +18042,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>46054</v>
+        <v>45839</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -18005,7 +18060,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>46082</v>
+        <v>45870</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -18023,7 +18078,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>46113</v>
+        <v>45901</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -18040,7 +18095,9 @@
       <c r="K610" s="20"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A611" s="40"/>
+      <c r="A611" s="40">
+        <v>45931</v>
+      </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
       <c r="D611" s="39"/>
@@ -18056,7 +18113,9 @@
       <c r="K611" s="20"/>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A612" s="40"/>
+      <c r="A612" s="40">
+        <v>45962</v>
+      </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
       <c r="D612" s="39"/>
@@ -18072,7 +18131,9 @@
       <c r="K612" s="20"/>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A613" s="40"/>
+      <c r="A613" s="40">
+        <v>45992</v>
+      </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
       <c r="D613" s="39"/>
@@ -18088,7 +18149,9 @@
       <c r="K613" s="20"/>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A614" s="40"/>
+      <c r="A614" s="40">
+        <v>46023</v>
+      </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
       <c r="D614" s="39"/>
@@ -18104,7 +18167,9 @@
       <c r="K614" s="20"/>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A615" s="40"/>
+      <c r="A615" s="40">
+        <v>46054</v>
+      </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
       <c r="D615" s="39"/>
@@ -18120,7 +18185,9 @@
       <c r="K615" s="20"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A616" s="40"/>
+      <c r="A616" s="40">
+        <v>46082</v>
+      </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
       <c r="D616" s="39"/>
@@ -18136,7 +18203,9 @@
       <c r="K616" s="20"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A617" s="40"/>
+      <c r="A617" s="40">
+        <v>46113</v>
+      </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
       <c r="D617" s="39"/>
@@ -18152,20 +18221,132 @@
       <c r="K617" s="20"/>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A618" s="41"/>
-      <c r="B618" s="15"/>
-      <c r="C618" s="42"/>
-      <c r="D618" s="43"/>
+      <c r="A618" s="40"/>
+      <c r="B618" s="20"/>
+      <c r="C618" s="13"/>
+      <c r="D618" s="39"/>
       <c r="E618" s="9"/>
-      <c r="F618" s="15"/>
-      <c r="G618" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H618" s="43"/>
+      <c r="F618" s="20"/>
+      <c r="G618" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H618" s="39"/>
       <c r="I618" s="9"/>
-      <c r="J618" s="12"/>
-      <c r="K618" s="15"/>
+      <c r="J618" s="11"/>
+      <c r="K618" s="20"/>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A619" s="40"/>
+      <c r="B619" s="20"/>
+      <c r="C619" s="13"/>
+      <c r="D619" s="39"/>
+      <c r="E619" s="9"/>
+      <c r="F619" s="20"/>
+      <c r="G619" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H619" s="39"/>
+      <c r="I619" s="9"/>
+      <c r="J619" s="11"/>
+      <c r="K619" s="20"/>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A620" s="40"/>
+      <c r="B620" s="20"/>
+      <c r="C620" s="13"/>
+      <c r="D620" s="39"/>
+      <c r="E620" s="9"/>
+      <c r="F620" s="20"/>
+      <c r="G620" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H620" s="39"/>
+      <c r="I620" s="9"/>
+      <c r="J620" s="11"/>
+      <c r="K620" s="20"/>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A621" s="40"/>
+      <c r="B621" s="20"/>
+      <c r="C621" s="13"/>
+      <c r="D621" s="39"/>
+      <c r="E621" s="9"/>
+      <c r="F621" s="20"/>
+      <c r="G621" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H621" s="39"/>
+      <c r="I621" s="9"/>
+      <c r="J621" s="11"/>
+      <c r="K621" s="20"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A622" s="40"/>
+      <c r="B622" s="20"/>
+      <c r="C622" s="13"/>
+      <c r="D622" s="39"/>
+      <c r="E622" s="9"/>
+      <c r="F622" s="20"/>
+      <c r="G622" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H622" s="39"/>
+      <c r="I622" s="9"/>
+      <c r="J622" s="11"/>
+      <c r="K622" s="20"/>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A623" s="40"/>
+      <c r="B623" s="20"/>
+      <c r="C623" s="13"/>
+      <c r="D623" s="39"/>
+      <c r="E623" s="9"/>
+      <c r="F623" s="20"/>
+      <c r="G623" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H623" s="39"/>
+      <c r="I623" s="9"/>
+      <c r="J623" s="11"/>
+      <c r="K623" s="20"/>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A624" s="40"/>
+      <c r="B624" s="20"/>
+      <c r="C624" s="13"/>
+      <c r="D624" s="39"/>
+      <c r="E624" s="9"/>
+      <c r="F624" s="20"/>
+      <c r="G624" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H624" s="39"/>
+      <c r="I624" s="9"/>
+      <c r="J624" s="11"/>
+      <c r="K624" s="20"/>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A625" s="41"/>
+      <c r="B625" s="15"/>
+      <c r="C625" s="42"/>
+      <c r="D625" s="43"/>
+      <c r="E625" s="9"/>
+      <c r="F625" s="15"/>
+      <c r="G625" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H625" s="43"/>
+      <c r="I625" s="9"/>
+      <c r="J625" s="12"/>
+      <c r="K625" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
